--- a/biology/Botanique/Salix_sitchensis/Salix_sitchensis.xlsx
+++ b/biology/Botanique/Salix_sitchensis/Salix_sitchensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix  sitchensis, le saule sitka (en anglais, sitka willow) ou le saule velours (en anglais velvet willow), est une espèce de saule de la famille des Salicaceae, originaire du nord-ouest de l'Amérique du Nord, de l'Alaska au nord de la Californie et au Montana.
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix coulteri ;
 Salix cuneata.</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix sitchensis  est variable en apparence. Il peut prendre la forme d'un arbuste touffu ou d'un arbre érigé jusqu'à 8 m de haut. Les feuilles font jusqu'à 12 cm de long, elles sont en forme de lance ou ovales avec une pointe, à bord lisse ou denté, souvent avec les bords roulés. Le dessous est de velu à laineux et les surfaces supérieures sont principalement glabres et vert foncé.
 L'inflorescence est souvent un fin chaton, court et robuste. Les chatons mâles font jusqu'à 6 cm de long. Les chatons femelles sont plus longs, dépassant parfois 10 cm et grandissant jusqu'à ce que les fruits aient terminé leur développement. La floraison a lieu en mars en Californie.
